--- a/biology/Zoologie/Crabier_de_Gray/Crabier_de_Gray.xlsx
+++ b/biology/Zoologie/Crabier_de_Gray/Crabier_de_Gray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardeola grayii
 Le Crabier de Gray (Ardeola grayii) est une espèce d'oiseaux aquatiques de la famille des Ardeidae. Son nom célèbre John Edward Gray (1800-1875).
-C’est un petit héron commun dans la plupart des habitats aquatiques du sous-continent indien. Cette espèce se reproduit dans le sud de l'Iran, au Pakistan, en Inde, au Myanmar, au Bangladesh et au Sri Lanka. Bien que largement répandu et très commun, il peut facilement passer inaperçu lorsqu'il tend des embuscades à ses proies au bord de petits plans d'eau ou encore lorsqu'il se perche près des habitations humaines[1].
+C’est un petit héron commun dans la plupart des habitats aquatiques du sous-continent indien. Cette espèce se reproduit dans le sud de l'Iran, au Pakistan, en Inde, au Myanmar, au Bangladesh et au Sri Lanka. Bien que largement répandu et très commun, il peut facilement passer inaperçu lorsqu'il tend des embuscades à ses proies au bord de petits plans d'eau ou encore lorsqu'il se perche près des habitations humaines.
 </t>
         </is>
       </c>
